--- a/outputs-HGR-r202-archive/c__Bacteroidia.xlsx
+++ b/outputs-HGR-r202-archive/c__Bacteroidia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999943079555852</v>
+        <v>0.9999999255643602</v>
       </c>
       <c r="C2" t="n">
-        <v>5.692044414853718e-06</v>
+        <v>7.443563977184332e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999943079555852</v>
+        <v>0.9999999255643602</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999997220479481</v>
+        <v>0.9999999599982596</v>
       </c>
       <c r="C3" t="n">
-        <v>2.779520519129216e-07</v>
+        <v>4.000174038688408e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999997220479481</v>
+        <v>0.9999999599982596</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999266578162</v>
+        <v>0.9999997896958824</v>
       </c>
       <c r="C4" t="n">
-        <v>7.334218373444392e-08</v>
+        <v>2.103041175643289e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999266578162</v>
+        <v>0.9999997896958824</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999855741070519</v>
+        <v>0.9999998643965311</v>
       </c>
       <c r="C5" t="n">
-        <v>1.442589294811444e-05</v>
+        <v>1.356034688919048e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999855741070519</v>
+        <v>0.9999998643965311</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999981524116515</v>
+        <v>0.9999999788144469</v>
       </c>
       <c r="C6" t="n">
-        <v>1.847588348561657e-06</v>
+        <v>2.118555304168591e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999981524116515</v>
+        <v>0.9999999788144469</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999996778113032</v>
+        <v>0.9999999462599981</v>
       </c>
       <c r="C7" t="n">
-        <v>3.22188696885384e-07</v>
+        <v>5.374000191707567e-08</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999996778113032</v>
+        <v>0.9999999462599981</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999986845529991</v>
+        <v>0.999999895884505</v>
       </c>
       <c r="C8" t="n">
-        <v>1.315447000844253e-06</v>
+        <v>1.041154949530893e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999986845529991</v>
+        <v>0.999999895884505</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999997661043111</v>
+        <v>0.9999866270966542</v>
       </c>
       <c r="C9" t="n">
-        <v>2.338956889362203e-07</v>
+        <v>1.337290334581819e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999997661043111</v>
+        <v>0.9999866270966542</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999697444814</v>
+        <v>0.999991266316289</v>
       </c>
       <c r="C10" t="n">
-        <v>3.025551863052274e-08</v>
+        <v>8.733683711040904e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999697444814</v>
+        <v>0.999991266316289</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999439047068</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>5.609529315259156e-08</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999439047068</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999923344608126</v>
+        <v>0.9999952963626944</v>
       </c>
       <c r="C12" t="n">
-        <v>7.665539187412788e-06</v>
+        <v>4.703637305660809e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999923344608126</v>
+        <v>0.9999952963626944</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999996972627107</v>
+        <v>0.9999879799609835</v>
       </c>
       <c r="C13" t="n">
-        <v>3.027372893809369e-07</v>
+        <v>1.202003901641226e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999996972627107</v>
+        <v>0.9999879799609835</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999985053379</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.494662101745814e-09</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999985053379</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999993593499359</v>
+        <v>0.999985329984509</v>
       </c>
       <c r="C15" t="n">
-        <v>6.406500640926091e-07</v>
+        <v>1.467001549108616e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999993593499359</v>
+        <v>0.999985329984509</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999943342007851</v>
+        <v>0.9999999174699388</v>
       </c>
       <c r="C16" t="n">
-        <v>5.665799214858477e-06</v>
+        <v>8.253006122560476e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999943342007851</v>
+        <v>0.9999999174699388</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999922541737385</v>
+        <v>0.999991648765266</v>
       </c>
       <c r="C17" t="n">
-        <v>7.745826261509963e-06</v>
+        <v>8.351234734010399e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999922541737385</v>
+        <v>0.999991648765266</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999993597813582</v>
+        <v>0.9999998946343891</v>
       </c>
       <c r="C18" t="n">
-        <v>6.402186417606276e-07</v>
+        <v>1.05365610875835e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999993597813582</v>
+        <v>0.9999998946343891</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999994509563419</v>
+        <v>0.9999922753054763</v>
       </c>
       <c r="C19" t="n">
-        <v>5.490436580560053e-07</v>
+        <v>7.72469452371402e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999994509563419</v>
+        <v>0.9999922753054763</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999751154404664</v>
+        <v>0.9999897068072418</v>
       </c>
       <c r="C20" t="n">
-        <v>2.488455953365107e-05</v>
+        <v>1.029319275830273e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999751154404664</v>
+        <v>0.9999897068072418</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999995610665706</v>
+        <v>0.9999899927227461</v>
       </c>
       <c r="C21" t="n">
-        <v>4.389334293478197e-07</v>
+        <v>1.000727725383966e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999995610665706</v>
+        <v>0.9999899927227461</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999972422676148</v>
+        <v>0.9999898570604363</v>
       </c>
       <c r="C22" t="n">
-        <v>2.757732385265083e-06</v>
+        <v>1.014293956372896e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999972422676148</v>
+        <v>0.9999898570604363</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999986395690489</v>
+        <v>0.9999973512961808</v>
       </c>
       <c r="C23" t="n">
-        <v>1.360430951076859e-06</v>
+        <v>2.648703819136558e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999986395690489</v>
+        <v>0.9999973512961808</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999991127112353</v>
+        <v>0.9999998155575693</v>
       </c>
       <c r="C24" t="n">
-        <v>8.872887646887796e-07</v>
+        <v>1.844424306098869e-07</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999991127112353</v>
+        <v>0.9999998155575693</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999949598010983</v>
+        <v>0.9999898831549991</v>
       </c>
       <c r="C25" t="n">
-        <v>5.040198901735375e-06</v>
+        <v>1.011684500083677e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999949598010983</v>
+        <v>0.9999898831549991</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999740868851725</v>
+        <v>0.9999997488108235</v>
       </c>
       <c r="C26" t="n">
-        <v>2.591311482743673e-05</v>
+        <v>2.511891764612412e-07</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999740868851725</v>
+        <v>0.9999997488108235</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999984332774438</v>
+        <v>0.9999998997631835</v>
       </c>
       <c r="C27" t="n">
-        <v>1.56672255621221e-06</v>
+        <v>1.002368164967196e-07</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999984332774438</v>
+        <v>0.9999998997631835</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9999886911646393</v>
+        <v>0.9999905790673012</v>
       </c>
       <c r="C28" t="n">
-        <v>1.130883536066101e-05</v>
+        <v>9.420932698804605e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999886911646393</v>
+        <v>0.9999905790673012</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9999998220855115</v>
+        <v>0.9999999768265943</v>
       </c>
       <c r="C29" t="n">
-        <v>1.77914488503723e-07</v>
+        <v>2.317340576651434e-08</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9999998220855115</v>
+        <v>0.9999999768265943</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9999979372248173</v>
+        <v>0.9999999436479037</v>
       </c>
       <c r="C30" t="n">
-        <v>2.062775182668236e-06</v>
+        <v>5.635209629809847e-08</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9999979372248173</v>
+        <v>0.9999999436479037</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9999995955868045</v>
+        <v>0.9999948298830785</v>
       </c>
       <c r="C31" t="n">
-        <v>4.044131955246718e-07</v>
+        <v>5.17011692152221e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999995955868045</v>
+        <v>0.9999948298830785</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9999017419575683</v>
+        <v>0.9999992347906627</v>
       </c>
       <c r="C32" t="n">
-        <v>9.825804243170537e-05</v>
+        <v>7.652093372906763e-07</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9999017419575683</v>
+        <v>0.9999992347906627</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9999996446245595</v>
+        <v>0.9999999129538647</v>
       </c>
       <c r="C33" t="n">
-        <v>3.553754405080403e-07</v>
+        <v>8.704613527612621e-08</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9999996446245595</v>
+        <v>0.9999999129538647</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9999993972521016</v>
+        <v>0.9999999166137383</v>
       </c>
       <c r="C34" t="n">
-        <v>6.027478984122961e-07</v>
+        <v>8.338626166618561e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9999993972521016</v>
+        <v>0.9999999166137383</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1331,13 +1331,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.99999828098205</v>
+        <v>0.9999999665790588</v>
       </c>
       <c r="C35" t="n">
-        <v>1.719017949956103e-06</v>
+        <v>3.342094118377207e-08</v>
       </c>
       <c r="D35" t="n">
-        <v>0.99999828098205</v>
+        <v>0.9999999665790588</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9998026539249973</v>
+        <v>0.9999845692774557</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001973460750026065</v>
+        <v>1.543072254433067e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9998026539249973</v>
+        <v>0.9999845692774557</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9999999320607911</v>
+        <v>0.9999966470756307</v>
       </c>
       <c r="C37" t="n">
-        <v>6.793920892710633e-08</v>
+        <v>3.352924369252602e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9999999320607911</v>
+        <v>0.9999966470756307</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9999850295830708</v>
+        <v>0.999999668021224</v>
       </c>
       <c r="C38" t="n">
-        <v>1.49704169292039e-05</v>
+        <v>3.319787760150089e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999850295830708</v>
+        <v>0.999999668021224</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9999965637863752</v>
+        <v>0.9999999580441186</v>
       </c>
       <c r="C39" t="n">
-        <v>3.436213624801266e-06</v>
+        <v>4.195588144450842e-08</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9999965637863752</v>
+        <v>0.9999999580441186</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1461,13 +1461,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9999988532209347</v>
+        <v>0.9999999556561713</v>
       </c>
       <c r="C40" t="n">
-        <v>1.146779065222137e-06</v>
+        <v>4.434382871537253e-08</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9999988532209347</v>
+        <v>0.9999999556561713</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9999999412623961</v>
+        <v>0.9999999092370692</v>
       </c>
       <c r="C41" t="n">
-        <v>5.873760388632179e-08</v>
+        <v>9.07629308919183e-08</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999999412623961</v>
+        <v>0.9999999092370692</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1513,13 +1513,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9999985277044103</v>
+        <v>0.9999999286221618</v>
       </c>
       <c r="C42" t="n">
-        <v>1.472295589649355e-06</v>
+        <v>7.137783820995099e-08</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9999985277044103</v>
+        <v>0.9999999286221618</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1539,13 +1539,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9999970129556446</v>
+        <v>0.9999999614592824</v>
       </c>
       <c r="C43" t="n">
-        <v>2.987044355433243e-06</v>
+        <v>3.854071762810508e-08</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9999970129556446</v>
+        <v>0.9999999614592824</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9999994006318158</v>
+        <v>0.9999999673463987</v>
       </c>
       <c r="C44" t="n">
-        <v>5.99368184198943e-07</v>
+        <v>3.265360128094963e-08</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9999994006318158</v>
+        <v>0.9999999673463987</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1591,13 +1591,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.99998131761603</v>
+        <v>0.9999963763932074</v>
       </c>
       <c r="C45" t="n">
-        <v>1.868238397001179e-05</v>
+        <v>3.62360679259098e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>0.99998131761603</v>
+        <v>0.9999963763932074</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9999949262726298</v>
+        <v>0.9999983902272801</v>
       </c>
       <c r="C46" t="n">
-        <v>5.073727370291318e-06</v>
+        <v>1.609772719905307e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9999949262726298</v>
+        <v>0.9999983902272801</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9999982460023246</v>
+        <v>0.9999999634884441</v>
       </c>
       <c r="C47" t="n">
-        <v>1.753997675442233e-06</v>
+        <v>3.651155593661185e-08</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999982460023246</v>
+        <v>0.9999999634884441</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9999875269029237</v>
+        <v>0.9999999319315489</v>
       </c>
       <c r="C48" t="n">
-        <v>1.247309707628923e-05</v>
+        <v>6.806845114956653e-08</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9999875269029237</v>
+        <v>0.9999999319315489</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9998636241929294</v>
+        <v>0.9999910973029048</v>
       </c>
       <c r="C49" t="n">
-        <v>0.000136375807070654</v>
+        <v>8.902697095151438e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9998636241929294</v>
+        <v>0.9999910973029048</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9999798426628717</v>
+        <v>0.9999999275429635</v>
       </c>
       <c r="C50" t="n">
-        <v>2.015733712835159e-05</v>
+        <v>7.245703645240293e-08</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9999798426628717</v>
+        <v>0.9999999275429635</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9997806579950076</v>
+        <v>0.9999946587536879</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0002193420049924365</v>
+        <v>5.341246312159723e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9997806579950076</v>
+        <v>0.9999946587536879</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1773,13 +1773,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.999999920425312</v>
+        <v>0.999997004719787</v>
       </c>
       <c r="C52" t="n">
-        <v>7.95746879269919e-08</v>
+        <v>2.995280212979857e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>0.999999920425312</v>
+        <v>0.999997004719787</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1799,13 +1799,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9999997199769617</v>
+        <v>0.999998771543231</v>
       </c>
       <c r="C53" t="n">
-        <v>2.800230383094201e-07</v>
+        <v>1.228456768998578e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9999997199769617</v>
+        <v>0.999998771543231</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1825,13 +1825,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9999996436032115</v>
+        <v>0.9999999297127461</v>
       </c>
       <c r="C54" t="n">
-        <v>3.563967885489377e-07</v>
+        <v>7.028725394617296e-08</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999996436032115</v>
+        <v>0.9999999297127461</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9999996730144479</v>
+        <v>0.9999999826680533</v>
       </c>
       <c r="C55" t="n">
-        <v>3.269855520255081e-07</v>
+        <v>1.733194667412181e-08</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9999996730144479</v>
+        <v>0.9999999826680533</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.999999080279272</v>
+        <v>0.9999935573349664</v>
       </c>
       <c r="C56" t="n">
-        <v>9.197207280046158e-07</v>
+        <v>6.442665033556881e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>0.999999080279272</v>
+        <v>0.9999935573349664</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1903,13 +1903,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.999999657358519</v>
+        <v>0.9999998027683924</v>
       </c>
       <c r="C57" t="n">
-        <v>3.426414810042331e-07</v>
+        <v>1.972316075592791e-07</v>
       </c>
       <c r="D57" t="n">
-        <v>0.999999657358519</v>
+        <v>0.9999998027683924</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9999836790936301</v>
+        <v>0.9999994534466476</v>
       </c>
       <c r="C58" t="n">
-        <v>1.632090636997655e-05</v>
+        <v>5.465533523933429e-07</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999836790936301</v>
+        <v>0.9999994534466476</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1955,13 +1955,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9993092500697318</v>
+        <v>0.9999857735129342</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0006907499302681471</v>
+        <v>1.422648706582558e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9993092500697318</v>
+        <v>0.9999857735129342</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1981,13 +1981,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9999999999995369</v>
+        <v>0.9999998029572206</v>
       </c>
       <c r="C60" t="n">
-        <v>4.631121561198875e-13</v>
+        <v>1.970427794213616e-07</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9999999999995369</v>
+        <v>0.9999998029572206</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9999998899895335</v>
+        <v>0.9999999716434009</v>
       </c>
       <c r="C61" t="n">
-        <v>1.100104664939045e-07</v>
+        <v>2.835659906148584e-08</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9999998899895335</v>
+        <v>0.9999999716434009</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2033,13 +2033,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9999999320046287</v>
+        <v>0.9999998636552448</v>
       </c>
       <c r="C62" t="n">
-        <v>6.799537130765664e-08</v>
+        <v>1.363447551960346e-07</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9999999320046287</v>
+        <v>0.9999998636552448</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9999993550974261</v>
+        <v>0.9999999435226007</v>
       </c>
       <c r="C63" t="n">
-        <v>6.449025738547033e-07</v>
+        <v>5.647739936570214e-08</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9999993550974261</v>
+        <v>0.9999999435226007</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2085,13 +2085,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9999992649585441</v>
+        <v>0.9999995796543701</v>
       </c>
       <c r="C64" t="n">
-        <v>7.350414558730892e-07</v>
+        <v>4.203456298823846e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999992649585441</v>
+        <v>0.9999995796543701</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9999999582198846</v>
+        <v>0.999845804321613</v>
       </c>
       <c r="C65" t="n">
-        <v>4.178011539229873e-08</v>
+        <v>0.000154195678387063</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999999582198846</v>
+        <v>0.999845804321613</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999712619</v>
       </c>
       <c r="C66" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>2.873814981554015e-11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999712619</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2163,13 +2163,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9999817062191417</v>
+        <v>0.9999998412204331</v>
       </c>
       <c r="C67" t="n">
-        <v>1.829378085828817e-05</v>
+        <v>1.587795669278958e-07</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999817062191417</v>
+        <v>0.9999998412204331</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2189,13 +2189,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9999999900713337</v>
+        <v>0.9999999794061326</v>
       </c>
       <c r="C68" t="n">
-        <v>9.928666324887789e-09</v>
+        <v>2.059386733403981e-08</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999999900713337</v>
+        <v>0.9999999794061326</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9999997911203399</v>
+        <v>0.9999998318484601</v>
       </c>
       <c r="C69" t="n">
-        <v>2.08879660099072e-07</v>
+        <v>1.681515399548501e-07</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9999997911203399</v>
+        <v>0.9999998318484601</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2241,13 +2241,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9999996851248526</v>
+        <v>0.9999999698305742</v>
       </c>
       <c r="C70" t="n">
-        <v>3.148751474430789e-07</v>
+        <v>3.016942587628356e-08</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9999996851248526</v>
+        <v>0.9999999698305742</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2267,13 +2267,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999999999973526</v>
       </c>
       <c r="C71" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>2.647404567080837e-11</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999999999973526</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2293,13 +2293,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9999997242292011</v>
+        <v>0.9999998866077534</v>
       </c>
       <c r="C72" t="n">
-        <v>2.757707988149443e-07</v>
+        <v>1.133922465664221e-07</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999997242292011</v>
+        <v>0.9999998866077534</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9999905260031217</v>
+        <v>0.9999999151893333</v>
       </c>
       <c r="C73" t="n">
-        <v>9.473996878326769e-06</v>
+        <v>8.481066669443388e-08</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9999905260031217</v>
+        <v>0.9999999151893333</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2345,13 +2345,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999980906</v>
       </c>
       <c r="C74" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.909341485382336e-12</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999980906</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2371,13 +2371,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9999998999411362</v>
+        <v>0.9999998970104202</v>
       </c>
       <c r="C75" t="n">
-        <v>1.000588637742003e-07</v>
+        <v>1.029895797598454e-07</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999998999411362</v>
+        <v>0.9999998970104202</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9999984029323721</v>
+        <v>0.9999999493782219</v>
       </c>
       <c r="C76" t="n">
-        <v>1.597067627944694e-06</v>
+        <v>5.062177807168626e-08</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9999984029323721</v>
+        <v>0.9999999493782219</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9999944954634202</v>
+        <v>0.9999999307603199</v>
       </c>
       <c r="C77" t="n">
-        <v>5.504536579783343e-06</v>
+        <v>6.923968013949084e-08</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9999944954634202</v>
+        <v>0.9999999307603199</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2449,13 +2449,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9999763917852427</v>
+        <v>0.9999999920804764</v>
       </c>
       <c r="C78" t="n">
-        <v>2.360821475730125e-05</v>
+        <v>7.91952356235679e-09</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999763917852427</v>
+        <v>0.9999999920804764</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9999071180080026</v>
+        <v>0.9999826628564105</v>
       </c>
       <c r="C79" t="n">
-        <v>9.288199199745427e-05</v>
+        <v>1.733714358953482e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999071180080026</v>
+        <v>0.9999826628564105</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9999996889974098</v>
+        <v>0.9999999631459409</v>
       </c>
       <c r="C80" t="n">
-        <v>3.110025902196931e-07</v>
+        <v>3.685405910801134e-08</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9999996889974098</v>
+        <v>0.9999999631459409</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2527,13 +2527,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.999866327826813</v>
+        <v>0.9999903786337536</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0001336721731870121</v>
+        <v>9.621366246356386e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>0.999866327826813</v>
+        <v>0.9999903786337536</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2553,13 +2553,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999523878528</v>
       </c>
       <c r="C82" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>4.761214720459879e-08</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999523878528</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9999997520323879</v>
+        <v>0.9999998018431626</v>
       </c>
       <c r="C83" t="n">
-        <v>2.479676121548956e-07</v>
+        <v>1.981568373319035e-07</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9999997520323879</v>
+        <v>0.9999998018431626</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2605,13 +2605,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9999995535234217</v>
+        <v>0.9999999142950663</v>
       </c>
       <c r="C84" t="n">
-        <v>4.464765782647829e-07</v>
+        <v>8.570493370623969e-08</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9999995535234217</v>
+        <v>0.9999999142950663</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9999998484571255</v>
+        <v>0.9999999491620331</v>
       </c>
       <c r="C85" t="n">
-        <v>1.51542874521935e-07</v>
+        <v>5.083796696347873e-08</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9999998484571255</v>
+        <v>0.9999999491620331</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2657,13 +2657,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9999993690541558</v>
+        <v>0.9999996995176799</v>
       </c>
       <c r="C86" t="n">
-        <v>6.309458442750839e-07</v>
+        <v>3.004823201045665e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9999993690541558</v>
+        <v>0.9999996995176799</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2683,13 +2683,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9999999190310062</v>
+        <v>0.9999999458767685</v>
       </c>
       <c r="C87" t="n">
-        <v>8.096899383297158e-08</v>
+        <v>5.412323150371264e-08</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9999999190310062</v>
+        <v>0.9999999458767685</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2709,13 +2709,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9999999628268103</v>
+        <v>0.9999995429375784</v>
       </c>
       <c r="C88" t="n">
-        <v>3.71731897408029e-08</v>
+        <v>4.570624215574652e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9999999628268103</v>
+        <v>0.9999995429375784</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41097.fa</t>
+          <t>even_MAG-GUT41378.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9999956375478289</v>
+        <v>0.9999999166234029</v>
       </c>
       <c r="C89" t="n">
-        <v>4.362452171082927e-06</v>
+        <v>8.337659709004659e-08</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9999956375478289</v>
+        <v>0.9999999166234029</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2757,17 +2757,17 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41378.fa</t>
+          <t>even_MAG-GUT41860.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9999973630081981</v>
+        <v>0.9999998877327805</v>
       </c>
       <c r="C90" t="n">
-        <v>2.636991801882254e-06</v>
+        <v>1.12267219472336e-07</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9999973630081981</v>
+        <v>0.9999998877327805</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2783,17 +2783,17 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41860.fa</t>
+          <t>even_MAG-GUT42780.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9999991586202215</v>
+        <v>0.9999999470725681</v>
       </c>
       <c r="C91" t="n">
-        <v>8.413797784690324e-07</v>
+        <v>5.292743188652439e-08</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9999991586202215</v>
+        <v>0.9999999470725681</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2809,17 +2809,17 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42780.fa</t>
+          <t>even_MAG-GUT42852.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9999965581272156</v>
+        <v>0.9999999177659856</v>
       </c>
       <c r="C92" t="n">
-        <v>3.441872784406594e-06</v>
+        <v>8.223401435791799e-08</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9999965581272156</v>
+        <v>0.9999999177659856</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2835,17 +2835,17 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42852.fa</t>
+          <t>even_MAG-GUT42865.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.999999397068711</v>
+        <v>0.999999984380137</v>
       </c>
       <c r="C93" t="n">
-        <v>6.029312890057431e-07</v>
+        <v>1.561986292838775e-08</v>
       </c>
       <c r="D93" t="n">
-        <v>0.999999397068711</v>
+        <v>0.999999984380137</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2861,17 +2861,17 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42865.fa</t>
+          <t>even_MAG-GUT43110.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9999999776233449</v>
+        <v>0.9999999887644534</v>
       </c>
       <c r="C94" t="n">
-        <v>2.237665504779144e-08</v>
+        <v>1.123554657736323e-08</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9999999776233449</v>
+        <v>0.9999999887644534</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2887,17 +2887,17 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43110.fa</t>
+          <t>even_MAG-GUT43251.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9999999748297006</v>
+        <v>0.9999990487577505</v>
       </c>
       <c r="C95" t="n">
-        <v>2.517029942784122e-08</v>
+        <v>9.512422495221044e-07</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9999999748297006</v>
+        <v>0.9999990487577505</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2913,17 +2913,17 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43251.fa</t>
+          <t>even_MAG-GUT43377.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9998341664528435</v>
+        <v>0.9999980486550517</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0001658335471565039</v>
+        <v>1.951344948243653e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9998341664528435</v>
+        <v>0.9999980486550517</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2939,17 +2939,17 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43377.fa</t>
+          <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9999318484378197</v>
+        <v>0.9999999818425176</v>
       </c>
       <c r="C97" t="n">
-        <v>6.815156218028627e-05</v>
+        <v>1.815748243518028e-08</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9999318484378197</v>
+        <v>0.9999999818425176</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2965,17 +2965,17 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43378.fa</t>
+          <t>even_MAG-GUT43648.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9999999917432146</v>
+        <v>0.9999999304807669</v>
       </c>
       <c r="C98" t="n">
-        <v>8.256785392670361e-09</v>
+        <v>6.951923314888376e-08</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9999999917432146</v>
+        <v>0.9999999304807669</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2991,17 +2991,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43648.fa</t>
+          <t>even_MAG-GUT43957.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9999977617165351</v>
+        <v>0.9999999313392248</v>
       </c>
       <c r="C99" t="n">
-        <v>2.238283464901375e-06</v>
+        <v>6.86607751999815e-08</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9999977617165351</v>
+        <v>0.9999999313392248</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3017,17 +3017,17 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43957.fa</t>
+          <t>even_MAG-GUT44774.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9999959055160058</v>
+        <v>0.9999999209521723</v>
       </c>
       <c r="C100" t="n">
-        <v>4.094483994158193e-06</v>
+        <v>7.904782773611605e-08</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9999959055160058</v>
+        <v>0.9999999209521723</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3043,17 +3043,17 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44774.fa</t>
+          <t>even_MAG-GUT44944.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9999996112516771</v>
+        <v>0.9999999731021839</v>
       </c>
       <c r="C101" t="n">
-        <v>3.887483228946092e-07</v>
+        <v>2.689781603859202e-08</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999996112516771</v>
+        <v>0.9999999731021839</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3069,17 +3069,17 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44944.fa</t>
+          <t>even_MAG-GUT45122.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9999995342326862</v>
+        <v>0.9999999501711387</v>
       </c>
       <c r="C102" t="n">
-        <v>4.65767313865641e-07</v>
+        <v>4.982886125857206e-08</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9999995342326862</v>
+        <v>0.9999999501711387</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3095,17 +3095,17 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45122.fa</t>
+          <t>even_MAG-GUT45214.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9999987864677858</v>
+        <v>0.9999998745476095</v>
       </c>
       <c r="C103" t="n">
-        <v>1.213532214113979e-06</v>
+        <v>1.254523904815272e-07</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9999987864677858</v>
+        <v>0.9999998745476095</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3121,17 +3121,17 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45214.fa</t>
+          <t>even_MAG-GUT45263.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9999871123473508</v>
+        <v>0.999999963142547</v>
       </c>
       <c r="C104" t="n">
-        <v>1.288765264916702e-05</v>
+        <v>3.685745301812551e-08</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9999871123473508</v>
+        <v>0.999999963142547</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3147,17 +3147,17 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45263.fa</t>
+          <t>even_MAG-GUT45396.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9999996686703804</v>
+        <v>0.9999999146647962</v>
       </c>
       <c r="C105" t="n">
-        <v>3.313296196374384e-07</v>
+        <v>8.533520378838156e-08</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9999996686703804</v>
+        <v>0.9999999146647962</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3173,17 +3173,17 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45396.fa</t>
+          <t>even_MAG-GUT4552.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9999993938212398</v>
+        <v>0.9999995122879596</v>
       </c>
       <c r="C106" t="n">
-        <v>6.061787601488396e-07</v>
+        <v>4.877120404249047e-07</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9999993938212398</v>
+        <v>0.9999995122879596</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3199,17 +3199,17 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4552.fa</t>
+          <t>even_MAG-GUT45670.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9999998131328658</v>
+        <v>0.9999999226799443</v>
       </c>
       <c r="C107" t="n">
-        <v>1.868671342438882e-07</v>
+        <v>7.732005571505023e-08</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9999998131328658</v>
+        <v>0.9999999226799443</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3225,17 +3225,17 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45670.fa</t>
+          <t>even_MAG-GUT4585.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9999998895893953</v>
+        <v>0.9999986612074178</v>
       </c>
       <c r="C108" t="n">
-        <v>1.104106046338463e-07</v>
+        <v>1.33879258219473e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9999998895893953</v>
+        <v>0.9999986612074178</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3251,17 +3251,17 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4585.fa</t>
+          <t>even_MAG-GUT4600.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9999999840667196</v>
+        <v>0.9999996429617047</v>
       </c>
       <c r="C109" t="n">
-        <v>1.593328033055354e-08</v>
+        <v>3.570382952233898e-07</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9999999840667196</v>
+        <v>0.9999996429617047</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3277,17 +3277,17 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4600.fa</t>
+          <t>even_MAG-GUT46167.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9999718168949298</v>
+        <v>0.9999999414323212</v>
       </c>
       <c r="C110" t="n">
-        <v>2.818310507028238e-05</v>
+        <v>5.85676787856504e-08</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9999718168949298</v>
+        <v>0.9999999414323212</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3303,17 +3303,17 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46167.fa</t>
+          <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.999996229782531</v>
+        <v>0.9999906061815741</v>
       </c>
       <c r="C111" t="n">
-        <v>3.770217468984862e-06</v>
+        <v>9.39381842586614e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>0.999996229782531</v>
+        <v>0.9999906061815741</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3329,17 +3329,17 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4634.fa</t>
+          <t>even_MAG-GUT46378.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9999962053494927</v>
+        <v>0.9999998780125786</v>
       </c>
       <c r="C112" t="n">
-        <v>3.794650507205918e-06</v>
+        <v>1.219874214245791e-07</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9999962053494927</v>
+        <v>0.9999998780125786</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3355,17 +3355,17 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46378.fa</t>
+          <t>even_MAG-GUT4651.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9999995496691219</v>
+        <v>0.9999931016914103</v>
       </c>
       <c r="C113" t="n">
-        <v>4.503308781716297e-07</v>
+        <v>6.898308589632432e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9999995496691219</v>
+        <v>0.9999931016914103</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3381,17 +3381,17 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4651.fa</t>
+          <t>even_MAG-GUT47205.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.9999977537074285</v>
+        <v>0.9999998280059901</v>
       </c>
       <c r="C114" t="n">
-        <v>2.246292571451551e-06</v>
+        <v>1.719940099160562e-07</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9999977537074285</v>
+        <v>0.9999998280059901</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3407,17 +3407,17 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47205.fa</t>
+          <t>even_MAG-GUT47800.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9999995660699168</v>
+        <v>0.999999923743693</v>
       </c>
       <c r="C115" t="n">
-        <v>4.339300832103973e-07</v>
+        <v>7.625630701480373e-08</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9999995660699168</v>
+        <v>0.999999923743693</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3433,17 +3433,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47330.fa</t>
+          <t>even_MAG-GUT48077.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9999982161797634</v>
+        <v>0.9999999506384282</v>
       </c>
       <c r="C116" t="n">
-        <v>1.783820236617091e-06</v>
+        <v>4.936157181490786e-08</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9999982161797634</v>
+        <v>0.9999999506384282</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3459,17 +3459,17 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47800.fa</t>
+          <t>even_MAG-GUT48276.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.9999986108877399</v>
+        <v>0.9999999538007663</v>
       </c>
       <c r="C117" t="n">
-        <v>1.389112260139449e-06</v>
+        <v>4.619923365775804e-08</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9999986108877399</v>
+        <v>0.9999999538007663</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3485,17 +3485,17 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48077.fa</t>
+          <t>even_MAG-GUT4969.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9999284047004169</v>
+        <v>0.9999999298996742</v>
       </c>
       <c r="C118" t="n">
-        <v>7.159529958309457e-05</v>
+        <v>7.010032579495311e-08</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9999284047004169</v>
+        <v>0.9999999298996742</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3511,17 +3511,17 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48276.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.9999962870071931</v>
+        <v>0.9999999999995997</v>
       </c>
       <c r="C119" t="n">
-        <v>3.712992806851265e-06</v>
+        <v>4.003477778310375e-13</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9999962870071931</v>
+        <v>0.9999999999995997</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3537,17 +3537,17 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4969.fa</t>
+          <t>even_MAG-GUT50478.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9999944825825902</v>
+        <v>0.9999961423614653</v>
       </c>
       <c r="C120" t="n">
-        <v>5.517417409838368e-06</v>
+        <v>3.857638534752967e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9999944825825902</v>
+        <v>0.9999961423614653</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3563,17 +3563,17 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999475229255</v>
       </c>
       <c r="C121" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>5.247707441274204e-08</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999475229255</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3589,17 +3589,17 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50478.fa</t>
+          <t>even_MAG-GUT50508.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9999998290342635</v>
+        <v>0.9999984035797335</v>
       </c>
       <c r="C122" t="n">
-        <v>1.709657364024405e-07</v>
+        <v>1.596420266484516e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9999998290342635</v>
+        <v>0.9999984035797335</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3615,17 +3615,17 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50483.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9999999303647124</v>
+        <v>0.9999999069106105</v>
       </c>
       <c r="C123" t="n">
-        <v>6.963528766957818e-08</v>
+        <v>9.308938955029799e-08</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9999999303647124</v>
+        <v>0.9999999069106105</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3641,17 +3641,17 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50508.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9999998401543015</v>
+        <v>0.9999999092080011</v>
       </c>
       <c r="C124" t="n">
-        <v>1.598456984335827e-07</v>
+        <v>9.079199893680259e-08</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9999998401543015</v>
+        <v>0.9999999092080011</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3667,17 +3667,17 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51557.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.9999991154310512</v>
+        <v>0.9999986282740174</v>
       </c>
       <c r="C125" t="n">
-        <v>8.845689487598606e-07</v>
+        <v>1.371725982626992e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9999991154310512</v>
+        <v>0.9999986282740174</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3693,17 +3693,17 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51559.fa</t>
+          <t>even_MAG-GUT52992.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9999993942065425</v>
+        <v>0.999997302795814</v>
       </c>
       <c r="C126" t="n">
-        <v>6.057934574577806e-07</v>
+        <v>2.697204185986261e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9999993942065425</v>
+        <v>0.999997302795814</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3719,17 +3719,17 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5249.fa</t>
+          <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.999999988321411</v>
+        <v>0.9999999442002231</v>
       </c>
       <c r="C127" t="n">
-        <v>1.167858903400911e-08</v>
+        <v>5.579977691260368e-08</v>
       </c>
       <c r="D127" t="n">
-        <v>0.999999988321411</v>
+        <v>0.9999999442002231</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3745,17 +3745,17 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52992.fa</t>
+          <t>even_MAG-GUT5375.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9999999698041777</v>
+        <v>0.9999974899099533</v>
       </c>
       <c r="C128" t="n">
-        <v>3.019582228911811e-08</v>
+        <v>2.510090046754945e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9999999698041777</v>
+        <v>0.9999974899099533</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3771,17 +3771,17 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53689.fa</t>
+          <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.9999999825504858</v>
+        <v>0.9999999921117764</v>
       </c>
       <c r="C129" t="n">
-        <v>1.744951412195484e-08</v>
+        <v>7.888223640159855e-09</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9999999825504858</v>
+        <v>0.9999999921117764</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3797,17 +3797,17 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5375.fa</t>
+          <t>even_MAG-GUT54831.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9999998691891078</v>
+        <v>0.9999965791809533</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30810892260088e-07</v>
+        <v>3.420819046748232e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9999998691891078</v>
+        <v>0.9999965791809533</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3823,17 +3823,17 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54574.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9999999383064313</v>
+        <v>0.9999998459727224</v>
       </c>
       <c r="C131" t="n">
-        <v>6.16935686635077e-08</v>
+        <v>1.540272775622827e-07</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9999999383064313</v>
+        <v>0.9999998459727224</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3849,17 +3849,17 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54831.fa</t>
+          <t>even_MAG-GUT55743.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.9992985824585089</v>
+        <v>0.9999999195701106</v>
       </c>
       <c r="C132" t="n">
-        <v>0.000701417541491104</v>
+        <v>8.042988939758368e-08</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9992985824585089</v>
+        <v>0.9999999195701106</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3875,17 +3875,17 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55210.fa</t>
+          <t>even_MAG-GUT56345.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9999999935352482</v>
+        <v>0.9999879637519938</v>
       </c>
       <c r="C133" t="n">
-        <v>6.464751867892583e-09</v>
+        <v>1.203624800614497e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9999999935352482</v>
+        <v>0.9999879637519938</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3901,17 +3901,17 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55743.fa</t>
+          <t>even_MAG-GUT56417.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9999979968300025</v>
+        <v>0.9999999799384764</v>
       </c>
       <c r="C134" t="n">
-        <v>2.00316999752328e-06</v>
+        <v>2.00615235233044e-08</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9999979968300025</v>
+        <v>0.9999999799384764</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3927,17 +3927,17 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56345.fa</t>
+          <t>even_MAG-GUT57158.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9997227035076285</v>
+        <v>0.9999997573701676</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0002772964923715506</v>
+        <v>2.426298324108298e-07</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9997227035076285</v>
+        <v>0.9999997573701676</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3953,17 +3953,17 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56417.fa</t>
+          <t>even_MAG-GUT57729.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9999993567639179</v>
+        <v>0.9999995148569744</v>
       </c>
       <c r="C136" t="n">
-        <v>6.43236082018198e-07</v>
+        <v>4.851430256525756e-07</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9999993567639179</v>
+        <v>0.9999995148569744</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3979,17 +3979,17 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57158.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9999802558951609</v>
+        <v>0.9999999625452503</v>
       </c>
       <c r="C137" t="n">
-        <v>1.974410483905387e-05</v>
+        <v>3.745474971454884e-08</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9999802558951609</v>
+        <v>0.9999999625452503</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4005,17 +4005,17 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57729.fa</t>
+          <t>even_MAG-GUT58938.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.9999996956372377</v>
+        <v>0.9999999621277773</v>
       </c>
       <c r="C138" t="n">
-        <v>3.043627622735305e-07</v>
+        <v>3.787222270916134e-08</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9999996956372377</v>
+        <v>0.9999999621277773</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4031,17 +4031,17 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5848.fa</t>
+          <t>even_MAG-GUT59149.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9999999069135455</v>
+        <v>0.9999997100222061</v>
       </c>
       <c r="C139" t="n">
-        <v>9.308645450076953e-08</v>
+        <v>2.899777938764845e-07</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9999999069135455</v>
+        <v>0.9999997100222061</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4057,17 +4057,17 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58938.fa</t>
+          <t>even_MAG-GUT593.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.9999998470958767</v>
+        <v>0.9999999579547137</v>
       </c>
       <c r="C140" t="n">
-        <v>1.529041232461767e-07</v>
+        <v>4.204528623415591e-08</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9999998470958767</v>
+        <v>0.9999999579547137</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4083,17 +4083,17 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59149.fa</t>
+          <t>even_MAG-GUT59579.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.9999766481142438</v>
+        <v>0.9999998534823317</v>
       </c>
       <c r="C141" t="n">
-        <v>2.335188575617523e-05</v>
+        <v>1.465176683556834e-07</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9999766481142438</v>
+        <v>0.9999998534823317</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4109,17 +4109,17 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT593.fa</t>
+          <t>even_MAG-GUT59599.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.9999988811580778</v>
+        <v>0.9999999178534975</v>
       </c>
       <c r="C142" t="n">
-        <v>1.118841922186273e-06</v>
+        <v>8.214650246308073e-08</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9999988811580778</v>
+        <v>0.9999999178534975</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4135,17 +4135,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59579.fa</t>
+          <t>even_MAG-GUT62658.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.9999999135985032</v>
+        <v>0.9999999671438847</v>
       </c>
       <c r="C143" t="n">
-        <v>8.640149688516438e-08</v>
+        <v>3.285611523259113e-08</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9999999135985032</v>
+        <v>0.9999999671438847</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4161,17 +4161,17 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59599.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.9999993438499188</v>
+        <v>0.9999910521557078</v>
       </c>
       <c r="C144" t="n">
-        <v>6.561500811899396e-07</v>
+        <v>8.94784429214179e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9999993438499188</v>
+        <v>0.9999910521557078</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4187,17 +4187,17 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62658.fa</t>
+          <t>even_MAG-GUT63198.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.9999993487784248</v>
+        <v>0.999999999560501</v>
       </c>
       <c r="C145" t="n">
-        <v>6.512215751873959e-07</v>
+        <v>4.394990239020164e-10</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9999993487784248</v>
+        <v>0.999999999560501</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4213,17 +4213,17 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63164.fa</t>
+          <t>even_MAG-GUT63214.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.9999883911497537</v>
+        <v>0.9999999987652821</v>
       </c>
       <c r="C146" t="n">
-        <v>1.16088502462675e-05</v>
+        <v>1.234717850200864e-09</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9999883911497537</v>
+        <v>0.9999999987652821</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4239,17 +4239,17 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63198.fa</t>
+          <t>even_MAG-GUT63219.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.999999999999335</v>
+        <v>0.9999999991565663</v>
       </c>
       <c r="C147" t="n">
-        <v>6.649760242695006e-13</v>
+        <v>8.434336887375963e-10</v>
       </c>
       <c r="D147" t="n">
-        <v>0.999999999999335</v>
+        <v>0.9999999991565663</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4265,17 +4265,17 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63214.fa</t>
+          <t>even_MAG-GUT63286.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9999999999950833</v>
+        <v>0.9999999978771926</v>
       </c>
       <c r="C148" t="n">
-        <v>4.916678931265939e-12</v>
+        <v>2.122807319137857e-09</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9999999999950833</v>
+        <v>0.9999999978771926</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4291,17 +4291,17 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63219.fa</t>
+          <t>even_MAG-GUT63373.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9999999999995135</v>
+        <v>0.9999999994042628</v>
       </c>
       <c r="C149" t="n">
-        <v>4.864956537192274e-13</v>
+        <v>5.957372248136018e-10</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9999999999995135</v>
+        <v>0.9999999994042628</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4317,17 +4317,17 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63286.fa</t>
+          <t>even_MAG-GUT63496.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.9999999999968167</v>
+        <v>0.9999999994069281</v>
       </c>
       <c r="C150" t="n">
-        <v>3.183374864002908e-12</v>
+        <v>5.93071979271776e-10</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9999999999968167</v>
+        <v>0.9999999994069281</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4343,17 +4343,17 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63373.fa</t>
+          <t>even_MAG-GUT63586.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.9999999999992956</v>
+        <v>0.9999999988138485</v>
       </c>
       <c r="C151" t="n">
-        <v>7.04489348265375e-13</v>
+        <v>1.186151525640365e-09</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9999999999992956</v>
+        <v>0.9999999988138485</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4369,17 +4369,17 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63496.fa</t>
+          <t>even_MAG-GUT63602.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.9999999999994774</v>
+        <v>0.9999999991422167</v>
       </c>
       <c r="C152" t="n">
-        <v>5.226204267945544e-13</v>
+        <v>8.577832624222112e-10</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9999999999994774</v>
+        <v>0.9999999991422167</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4395,17 +4395,17 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63586.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.9999999999970461</v>
+        <v>0.9999993201025267</v>
       </c>
       <c r="C153" t="n">
-        <v>2.953850921128471e-12</v>
+        <v>6.79897473376164e-07</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9999999999970461</v>
+        <v>0.9999993201025267</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4421,17 +4421,17 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63602.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.9999999999982579</v>
+        <v>0.9999986460055466</v>
       </c>
       <c r="C154" t="n">
-        <v>1.742018636207405e-12</v>
+        <v>1.353994453439493e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9999999999982579</v>
+        <v>0.9999986460055466</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4447,17 +4447,17 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6384.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.9999988739121234</v>
+        <v>0.9999985906558418</v>
       </c>
       <c r="C155" t="n">
-        <v>1.126087876646807e-06</v>
+        <v>1.409344158182331e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9999988739121234</v>
+        <v>0.9999985906558418</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4473,17 +4473,17 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6445.fa</t>
+          <t>even_MAG-GUT65795.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.9999992428493609</v>
+        <v>0.9999995429375784</v>
       </c>
       <c r="C156" t="n">
-        <v>7.571506391186567e-07</v>
+        <v>4.570624215574652e-07</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9999992428493609</v>
+        <v>0.9999995429375784</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4499,17 +4499,17 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6489.fa</t>
+          <t>even_MAG-GUT66097.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.9999834750582621</v>
+        <v>0.9999999968693686</v>
       </c>
       <c r="C157" t="n">
-        <v>1.652494173782904e-05</v>
+        <v>3.130631460624056e-09</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9999834750582621</v>
+        <v>0.9999999968693686</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4525,17 +4525,17 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65795.fa</t>
+          <t>even_MAG-GUT66701.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.9999999628268103</v>
+        <v>0.9999998698418519</v>
       </c>
       <c r="C158" t="n">
-        <v>3.71731897408029e-08</v>
+        <v>1.301581481336463e-07</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9999999628268103</v>
+        <v>0.9999998698418519</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4551,17 +4551,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66097.fa</t>
+          <t>even_MAG-GUT67224.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.9999999294058137</v>
+        <v>0.9999978307765013</v>
       </c>
       <c r="C159" t="n">
-        <v>7.059418626538325e-08</v>
+        <v>2.169223498701386e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9999999294058137</v>
+        <v>0.9999978307765013</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4577,17 +4577,17 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66701.fa</t>
+          <t>even_MAG-GUT68072.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.9999992021197179</v>
+        <v>0.9999998600105562</v>
       </c>
       <c r="C160" t="n">
-        <v>7.978802820792696e-07</v>
+        <v>1.399894438666554e-07</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9999992021197179</v>
+        <v>0.9999998600105562</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4603,17 +4603,17 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67224.fa</t>
+          <t>even_MAG-GUT68311.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.9999828767904712</v>
+        <v>0.9999996514846151</v>
       </c>
       <c r="C161" t="n">
-        <v>1.712320952883954e-05</v>
+        <v>3.485153848535606e-07</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9999828767904712</v>
+        <v>0.9999996514846151</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4629,17 +4629,17 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68072.fa</t>
+          <t>even_MAG-GUT68785.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.999999430936901</v>
+        <v>0.9999998837699967</v>
       </c>
       <c r="C162" t="n">
-        <v>5.690630989800829e-07</v>
+        <v>1.162300033262408e-07</v>
       </c>
       <c r="D162" t="n">
-        <v>0.999999430936901</v>
+        <v>0.9999998837699967</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4655,17 +4655,17 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68311.fa</t>
+          <t>even_MAG-GUT69465.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9999421132600573</v>
+        <v>0.9999599678818557</v>
       </c>
       <c r="C163" t="n">
-        <v>5.78867399426181e-05</v>
+        <v>4.003211814431237e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9999421132600573</v>
+        <v>0.9999599678818557</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4681,17 +4681,17 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68785.fa</t>
+          <t>even_MAG-GUT6955.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.9999999627599164</v>
+        <v>0.9998687825975837</v>
       </c>
       <c r="C164" t="n">
-        <v>3.724008353673899e-08</v>
+        <v>0.0001312174024162953</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9999999627599164</v>
+        <v>0.9998687825975837</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4707,17 +4707,17 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69465.fa</t>
+          <t>even_MAG-GUT6968.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.9999765620324443</v>
+        <v>0.9999607036255855</v>
       </c>
       <c r="C165" t="n">
-        <v>2.343796755569249e-05</v>
+        <v>3.92963744145044e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9999765620324443</v>
+        <v>0.9999607036255855</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4733,17 +4733,17 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6955.fa</t>
+          <t>even_MAG-GUT7012.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.9999513779256972</v>
+        <v>0.9999998526794307</v>
       </c>
       <c r="C166" t="n">
-        <v>4.862207430275021e-05</v>
+        <v>1.473205693531069e-07</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9999513779256972</v>
+        <v>0.9999998526794307</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4759,17 +4759,17 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6968.fa</t>
+          <t>even_MAG-GUT70404.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.9999991645681678</v>
+        <v>0.9999999874957829</v>
       </c>
       <c r="C167" t="n">
-        <v>8.354318321288679e-07</v>
+        <v>1.250421710635095e-08</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9999991645681678</v>
+        <v>0.9999999874957829</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4785,17 +4785,17 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7012.fa</t>
+          <t>even_MAG-GUT70913.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.9999929685301137</v>
+        <v>0.9999985813464667</v>
       </c>
       <c r="C168" t="n">
-        <v>7.031469886327445e-06</v>
+        <v>1.418653533317922e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9999929685301137</v>
+        <v>0.9999985813464667</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4811,17 +4811,17 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70404.fa</t>
+          <t>even_MAG-GUT71577.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.9999999124662837</v>
+        <v>0.9999643939156915</v>
       </c>
       <c r="C169" t="n">
-        <v>8.753371624305164e-08</v>
+        <v>3.560608430857932e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9999999124662837</v>
+        <v>0.9999643939156915</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4837,17 +4837,17 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70913.fa</t>
+          <t>even_MAG-GUT722.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.9999998833369159</v>
+        <v>0.9999998912427226</v>
       </c>
       <c r="C170" t="n">
-        <v>1.166630840606834e-07</v>
+        <v>1.087572774494483e-07</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9999998833369159</v>
+        <v>0.9999998912427226</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4863,17 +4863,17 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71577.fa</t>
+          <t>even_MAG-GUT72293.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.9999902746775772</v>
+        <v>0.9999998875156493</v>
       </c>
       <c r="C171" t="n">
-        <v>9.725322422814629e-06</v>
+        <v>1.124843507598288e-07</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9999902746775772</v>
+        <v>0.9999998875156493</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4889,17 +4889,17 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT722.fa</t>
+          <t>even_MAG-GUT72929.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.9999994022604253</v>
+        <v>0.9999999285204499</v>
       </c>
       <c r="C172" t="n">
-        <v>5.977395747336123e-07</v>
+        <v>7.147955002627536e-08</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9999994022604253</v>
+        <v>0.9999999285204499</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4915,17 +4915,17 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72293.fa</t>
+          <t>even_MAG-GUT73862.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.9999869865826118</v>
+        <v>0.9999974659388142</v>
       </c>
       <c r="C173" t="n">
-        <v>1.301341738824722e-05</v>
+        <v>2.534061185739675e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9999869865826118</v>
+        <v>0.9999974659388142</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4941,17 +4941,17 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72929.fa</t>
+          <t>even_MAG-GUT74916.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.9999998818202634</v>
+        <v>0.9999997601476623</v>
       </c>
       <c r="C174" t="n">
-        <v>1.181797365826479e-07</v>
+        <v>2.398523377132769e-07</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9999998818202634</v>
+        <v>0.9999997601476623</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4967,17 +4967,17 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73862.fa</t>
+          <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.999997543138734</v>
+        <v>0.9999987963245954</v>
       </c>
       <c r="C175" t="n">
-        <v>2.456861265959582e-06</v>
+        <v>1.203675404554931e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>0.999997543138734</v>
+        <v>0.9999987963245954</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4993,17 +4993,17 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74916.fa</t>
+          <t>even_MAG-GUT761.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.9999492446675445</v>
+        <v>0.9999999375378146</v>
       </c>
       <c r="C176" t="n">
-        <v>5.075533245543514e-05</v>
+        <v>6.246218543460415e-08</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9999492446675445</v>
+        <v>0.9999999375378146</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5019,17 +5019,17 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76034.fa</t>
+          <t>even_MAG-GUT76518.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.9999951060448349</v>
+        <v>0.9999904825870565</v>
       </c>
       <c r="C177" t="n">
-        <v>4.893955165083792e-06</v>
+        <v>9.517412943519008e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9999951060448349</v>
+        <v>0.9999904825870565</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -5045,17 +5045,17 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT761.fa</t>
+          <t>even_MAG-GUT77597.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.9999995841434608</v>
+        <v>0.999976305696922</v>
       </c>
       <c r="C178" t="n">
-        <v>4.158565392202563e-07</v>
+        <v>2.369430307806136e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9999995841434608</v>
+        <v>0.999976305696922</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -5071,17 +5071,17 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76518.fa</t>
+          <t>even_MAG-GUT77633.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.9998821635952008</v>
+        <v>0.9999972006436558</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0001178364047992535</v>
+        <v>2.799356344164121e-06</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9998821635952008</v>
+        <v>0.9999972006436558</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5097,17 +5097,17 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77597.fa</t>
+          <t>even_MAG-GUT78579.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.9998597984946862</v>
+        <v>0.9999981168101925</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0001402015053137942</v>
+        <v>1.88318980756251e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9998597984946862</v>
+        <v>0.9999981168101925</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5123,17 +5123,17 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77633.fa</t>
+          <t>even_MAG-GUT78910.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.9997515705456241</v>
+        <v>0.9992617391338631</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0002484294543758826</v>
+        <v>0.000738260866136895</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9997515705456241</v>
+        <v>0.9992617391338631</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5149,17 +5149,17 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78579.fa</t>
+          <t>even_MAG-GUT78923.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.9995107456649059</v>
+        <v>0.9854691901502052</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0004892543350940617</v>
+        <v>0.01453080984979484</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9995107456649059</v>
+        <v>0.9854691901502052</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5175,17 +5175,17 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78910.fa</t>
+          <t>even_MAG-GUT80330.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.9952026027846951</v>
+        <v>0.999999971011537</v>
       </c>
       <c r="C183" t="n">
-        <v>0.004797397215304926</v>
+        <v>2.898846298915192e-08</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9952026027846951</v>
+        <v>0.999999971011537</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5201,17 +5201,17 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78923.fa</t>
+          <t>even_MAG-GUT81123.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.9998900111694687</v>
+        <v>0.9999999175516547</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0001099888305312678</v>
+        <v>8.244834523213046e-08</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9998900111694687</v>
+        <v>0.9999999175516547</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5227,17 +5227,17 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80232.fa</t>
+          <t>even_MAG-GUT81409.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.9945024834320341</v>
+        <v>0.9999999688307184</v>
       </c>
       <c r="C185" t="n">
-        <v>0.005497516567965975</v>
+        <v>3.116928158238139e-08</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9945024834320341</v>
+        <v>0.9999999688307184</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5253,17 +5253,17 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80330.fa</t>
+          <t>even_MAG-GUT81646.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.9999992943139691</v>
+        <v>0.999999896684683</v>
       </c>
       <c r="C186" t="n">
-        <v>7.056860309869626e-07</v>
+        <v>1.033153169870542e-07</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9999992943139691</v>
+        <v>0.999999896684683</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5279,17 +5279,17 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81123.fa</t>
+          <t>even_MAG-GUT81936.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.9999995417817117</v>
+        <v>0.9999999011378905</v>
       </c>
       <c r="C187" t="n">
-        <v>4.582182882937216e-07</v>
+        <v>9.886210947372127e-08</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9999995417817117</v>
+        <v>0.9999999011378905</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5305,17 +5305,17 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81409.fa</t>
+          <t>even_MAG-GUT82089.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.9999994302259226</v>
+        <v>0.9999996715527077</v>
       </c>
       <c r="C188" t="n">
-        <v>5.697740774093131e-07</v>
+        <v>3.28447292230345e-07</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9999994302259226</v>
+        <v>0.9999996715527077</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5331,17 +5331,17 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81646.fa</t>
+          <t>even_MAG-GUT82177.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.9999987344692075</v>
+        <v>0.9999999442773553</v>
       </c>
       <c r="C189" t="n">
-        <v>1.265530792518758e-06</v>
+        <v>5.572264467288338e-08</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9999987344692075</v>
+        <v>0.9999999442773553</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5357,17 +5357,17 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81936.fa</t>
+          <t>even_MAG-GUT82314.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.9999995332601295</v>
+        <v>0.9999996974457971</v>
       </c>
       <c r="C190" t="n">
-        <v>4.667398704975292e-07</v>
+        <v>3.025542029645359e-07</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9999995332601295</v>
+        <v>0.9999996974457971</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5383,17 +5383,17 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82089.fa</t>
+          <t>even_MAG-GUT82472.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.9999994528982469</v>
+        <v>0.9999998921828143</v>
       </c>
       <c r="C191" t="n">
-        <v>5.471017531223698e-07</v>
+        <v>1.078171857843487e-07</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9999994528982469</v>
+        <v>0.9999998921828143</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5409,17 +5409,17 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82177.fa</t>
+          <t>even_MAG-GUT82505.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.9999990112714786</v>
+        <v>0.9999999508349424</v>
       </c>
       <c r="C192" t="n">
-        <v>9.887285213975123e-07</v>
+        <v>4.916505759929471e-08</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9999990112714786</v>
+        <v>0.9999999508349424</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5435,17 +5435,17 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82314.fa</t>
+          <t>even_MAG-GUT82571.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.9999991456819551</v>
+        <v>0.9999999703319765</v>
       </c>
       <c r="C193" t="n">
-        <v>8.543180448443853e-07</v>
+        <v>2.966802343330913e-08</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9999991456819551</v>
+        <v>0.9999999703319765</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5461,17 +5461,17 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82472.fa</t>
+          <t>even_MAG-GUT8267.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.9999990373819904</v>
+        <v>0.999996857355156</v>
       </c>
       <c r="C194" t="n">
-        <v>9.626180096573928e-07</v>
+        <v>3.142644843981133e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9999990373819904</v>
+        <v>0.999996857355156</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5487,17 +5487,17 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82505.fa</t>
+          <t>even_MAG-GUT82998.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.9999996364964155</v>
+        <v>0.9999996534231215</v>
       </c>
       <c r="C195" t="n">
-        <v>3.635035844918981e-07</v>
+        <v>3.465768784918624e-07</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9999996364964155</v>
+        <v>0.9999996534231215</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5513,17 +5513,17 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82571.fa</t>
+          <t>even_MAG-GUT83643.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.9999997812313325</v>
+        <v>0.9999551615799247</v>
       </c>
       <c r="C196" t="n">
-        <v>2.187686675545064e-07</v>
+        <v>4.483842007526393e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9999997812313325</v>
+        <v>0.9999551615799247</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5539,17 +5539,17 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8267.fa</t>
+          <t>even_MAG-GUT838.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.9999998577584497</v>
+        <v>0.9999999737540919</v>
       </c>
       <c r="C197" t="n">
-        <v>1.42241550371287e-07</v>
+        <v>2.624590816646345e-08</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9999998577584497</v>
+        <v>0.9999999737540919</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5565,17 +5565,17 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82998.fa</t>
+          <t>even_MAG-GUT84166.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.9999928502742066</v>
+        <v>0.9999995640400834</v>
       </c>
       <c r="C198" t="n">
-        <v>7.149725793363602e-06</v>
+        <v>4.359599165991611e-07</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9999928502742066</v>
+        <v>0.9999995640400834</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5591,17 +5591,17 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83643.fa</t>
+          <t>even_MAG-GUT84304.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.9999983257024118</v>
+        <v>0.9999995608001174</v>
       </c>
       <c r="C199" t="n">
-        <v>1.674297588286329e-06</v>
+        <v>4.39199882600132e-07</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9999983257024118</v>
+        <v>0.9999995608001174</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5617,17 +5617,17 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT838.fa</t>
+          <t>even_MAG-GUT85906.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.999999589296972</v>
+        <v>0.9999963013127356</v>
       </c>
       <c r="C200" t="n">
-        <v>4.107030280405561e-07</v>
+        <v>3.6986872643047e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>0.999999589296972</v>
+        <v>0.9999963013127356</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5643,17 +5643,17 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84166.fa</t>
+          <t>even_MAG-GUT86112.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.9999906090660735</v>
+        <v>0.9999994846979403</v>
       </c>
       <c r="C201" t="n">
-        <v>9.390933926474553e-06</v>
+        <v>5.153020597081534e-07</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9999906090660735</v>
+        <v>0.9999994846979403</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5669,17 +5669,17 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84304.fa</t>
+          <t>even_MAG-GUT86504.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.9999876313971542</v>
+        <v>0.9999998900248668</v>
       </c>
       <c r="C202" t="n">
-        <v>1.236860284578602e-05</v>
+        <v>1.099751332190175e-07</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9999876313971542</v>
+        <v>0.9999998900248668</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5695,17 +5695,17 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85906.fa</t>
+          <t>even_MAG-GUT89050.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.9999902862577207</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C203" t="n">
-        <v>9.713742279346822e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9999902862577207</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5721,17 +5721,17 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86112.fa</t>
+          <t>even_MAG-GUT89164.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.9999525667867241</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C204" t="n">
-        <v>4.74332132759059e-05</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9999525667867241</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5747,17 +5747,17 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86504.fa</t>
+          <t>even_MAG-GUT89816.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.9999970003671156</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C205" t="n">
-        <v>2.999632884377056e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9999970003671156</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -5765,6 +5765,188 @@
         </is>
       </c>
       <c r="F205" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89851.fa</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.913248953873386e-06</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90143.fa</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.913248953873386e-06</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90408.fa</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.913248953873386e-06</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90615.fa</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.913248953873386e-06</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90683.fa</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.913248953873386e-06</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90996.fa</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.913248953873386e-06</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91012.fa</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.913248953873386e-06</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.9999980867510462</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
